--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>39</v>
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/Base/Teams/Bears/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bears/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>3</v>
